--- a/biology/Botanique/Morchella_tomentosa/Morchella_tomentosa.xlsx
+++ b/biology/Botanique/Morchella_tomentosa/Morchella_tomentosa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Morchella tomentosa est une espèce de champignons comestibles, du genre Morchella de la famille des Morchellaceae dans l'ordre des Pezizales (Fungi).
 </t>
@@ -513,9 +525,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Nom binomial
-Morchella tomentosa
-Synonymes</t>
+          <t>Nom binomial</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Morchella tomentosa
+</t>
         </is>
       </c>
     </row>
@@ -543,7 +560,9 @@
           <t>Description du sporophore</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Chapeau de 3 à 11 cm de hauteur et 2 à 5 cm de large ; ovoïde ou presque conique ; pied parfois enflé à la base. À l'état jeune, le chapeau et le pied sont densément recouverts de poils fins ; les spécimens plus âgés peuvent devenir gris, brunâtres, jaunâtres, ou même blanchâtres, surtout s'ils sont exposés directement au soleil.
 </t>
@@ -574,7 +593,9 @@
           <t>Habitat et distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce champignon pousse sur les brûlis des forêts de conifères, principalement au printemps après un incendie ; apparaissant généralement en haute altitude, le printemps (qui représente l'altitude)[pas clair] ; du Colorado au nord de la Californie et en Alaska.
 </t>
@@ -605,7 +626,9 @@
           <t>Comestibilité</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Excellent comestible
 </t>
@@ -636,7 +659,9 @@
           <t>Confusion possible</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Des spécimens plus âgés peuvent ressembler à plusieurs autres morilles du groupe elata.
 </t>
